--- a/biology/Zoologie/Dipoena_ira/Dipoena_ira.xlsx
+++ b/biology/Zoologie/Dipoena_ira/Dipoena_ira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipoena ira est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipoena ira est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États du Rio Grande do Sul, de Santa Catarina, du Paraná, de São Paulo, du Minas Gerais, du Sergipe et du Pernambouc[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Rio Grande do Sul, de Santa Catarina, du Paraná, de São Paulo, du Minas Gerais, du Sergipe et du Pernambouc.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 2,0 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 2,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Levi, 1963 : American spiders of the genera Audifia, Euryopis and Dipoena (Araneae: Theridiidae). Bulletin of the Museum of Comparative Zoology, vol. 129, no 2, p. 121-185 (texte intégral).</t>
         </is>
